--- a/test.xlsx
+++ b/test.xlsx
@@ -600,10 +600,10 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="22.88" customWidth="1" style="12" min="1" max="1"/>
     <col width="27.99" customWidth="1" style="12" min="2" max="2"/>
@@ -634,11 +634,7 @@
           <t>&lt;Candidate Name&gt;</t>
         </is>
       </c>
-      <c r="B4" s="19" t="inlineStr">
-        <is>
-          <t>Joining Date</t>
-        </is>
-      </c>
+      <c r="B4" s="19" t="n"/>
       <c r="C4" s="20" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="13">
@@ -704,10 +700,10 @@
         </is>
       </c>
       <c r="B9" s="25" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="25" t="n">
-        <v>16.66666666666667</v>
+        <v>416.6666666666667</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="13">
@@ -717,10 +713,10 @@
         </is>
       </c>
       <c r="B10" s="25" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="C10" s="25" t="n">
-        <v>8.333333333333334</v>
+        <v>208.3333333333333</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="13">
@@ -752,14 +748,14 @@
     <row r="13" ht="15.75" customHeight="1" s="13">
       <c r="A13" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Employer ESI </t>
+          <t>Employer_ESI</t>
         </is>
       </c>
       <c r="B13" s="25" t="n">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="C13" s="25" t="n">
-        <v>2.75</v>
+        <v>27.08333333333333</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="13">

--- a/test.xlsx
+++ b/test.xlsx
@@ -603,7 +603,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="22.88" customWidth="1" style="12" min="1" max="1"/>
     <col width="27.99" customWidth="1" style="12" min="2" max="2"/>
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B9" s="25" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="C9" s="25" t="n">
-        <v>416.6666666666667</v>
+        <v>41666.66666666666</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B10" s="25" t="n">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="C10" s="25" t="n">
-        <v>208.3333333333333</v>
+        <v>20833.33333333333</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="13">
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="B11" s="25" t="n">
-        <v>-21383</v>
+        <v>228400</v>
       </c>
       <c r="C11" s="25" t="n">
-        <v>-1781.91666666667</v>
+        <v>19033.33333333333</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="13">
       <c r="A12" s="18" t="inlineStr">
         <is>
-          <t>Employer PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="B12" s="25" t="n">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B13" s="25" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25" t="n">
-        <v>27.08333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="13">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B14" s="24" t="n">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C14" s="24" t="n">
         <v>83.3333333333333</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -768,7 +768,7 @@
         <v>1000000</v>
       </c>
       <c r="C14" s="24" t="n">
-        <v>83.3333333333333</v>
+        <v>83416.66666666666</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="13">
